--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1713728.119330729</v>
+        <v>1817907.753781799</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283173</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -710,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>195.5565936082887</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>54.34809064563531</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>94.17933574607686</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>63.72703424640825</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>334.4146100199736</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>37.84125266805163</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>82.55485809114309</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>51.06561173382013</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>313.9244780589178</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400.7712346407609</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>117.7240588165652</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>71.49367430371706</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,16 +1350,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>160.3243999861106</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1610,13 +1612,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>27.02919805175884</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365941</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>139.188673966789</v>
       </c>
       <c r="C19" t="n">
-        <v>14.76058440587622</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>164.9367233701331</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,19 +2295,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892518</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>11.76284745948067</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712647</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206843</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>60.64713141731188</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>208.2585798692292</v>
       </c>
     </row>
     <row r="29">
@@ -2855,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>36.39209596079195</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892429766</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>1.799772605720108</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856538</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272881</v>
+        <v>170.9457618790575</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634761</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495696068</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>99.39152647956452</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>190.5819130177805</v>
       </c>
     </row>
     <row r="38">
@@ -3506,10 +3508,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>50.49265242093051</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>245.8796921214435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.35562273557</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
         <v>1320.35562273557</v>
@@ -4328,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3017.78324040062</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2764.252763674457</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2433.189876330886</v>
+        <v>3160.418091878048</v>
       </c>
       <c r="W2" t="n">
-        <v>2080.421221060772</v>
+        <v>2807.649436607934</v>
       </c>
       <c r="X2" t="n">
-        <v>1706.955462799692</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y2" t="n">
-        <v>1706.955462799692</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2246.382089998688</v>
+        <v>477.4688890257551</v>
       </c>
       <c r="C4" t="n">
-        <v>2077.445907070781</v>
+        <v>308.5327060978482</v>
       </c>
       <c r="D4" t="n">
-        <v>1927.329267658446</v>
+        <v>308.5327060978482</v>
       </c>
       <c r="E4" t="n">
-        <v>1779.416174076053</v>
+        <v>308.5327060978482</v>
       </c>
       <c r="F4" t="n">
-        <v>1632.526226578142</v>
+        <v>161.6427585999378</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952861</v>
+        <v>161.6427585999378</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952861</v>
+        <v>161.6427585999378</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>3261.235079946132</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3261.235079946132</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>2972.132213071775</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>2717.447724865889</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>2428.030554828928</v>
+        <v>879.9099329995249</v>
       </c>
       <c r="X4" t="n">
-        <v>2428.030554828928</v>
+        <v>879.9099329995249</v>
       </c>
       <c r="Y4" t="n">
-        <v>2428.030554828928</v>
+        <v>659.1173538559948</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1938.906022842681</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1569.943505902269</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4580,13 +4582,13 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3177.09166559278</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3177.09166559278</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>3177.09166559278</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2824.323010322666</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2325.505862906803</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738579</v>
+        <v>486.5398815319805</v>
       </c>
       <c r="C7" t="n">
-        <v>583.826112045951</v>
+        <v>317.6036986040737</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336153</v>
+        <v>317.6036986040737</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512222</v>
+        <v>317.6036986040737</v>
       </c>
       <c r="F7" t="n">
-        <v>285.7963790512222</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>118.0935424259411</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>118.0935424259411</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>486.5398815319805</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1892.963660013484</v>
+        <v>1918.208919851715</v>
       </c>
       <c r="C8" t="n">
-        <v>1524.001143073072</v>
+        <v>1549.246402911304</v>
       </c>
       <c r="D8" t="n">
-        <v>1165.735444466321</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>779.9471918680772</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380157</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250375</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989295</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y8" t="n">
-        <v>1892.963660013484</v>
+        <v>2304.808759915837</v>
       </c>
     </row>
     <row r="9">
@@ -4875,16 +4877,16 @@
         <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031485</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158141</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>504.4781294962293</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C10" t="n">
-        <v>335.5419465683224</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D10" t="n">
-        <v>185.4253071559866</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E10" t="n">
-        <v>185.4253071559866</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="F10" t="n">
-        <v>185.4253071559866</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>284.9451358443429</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>138.7279490622007</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>906.9191734699991</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>686.126594326469</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5018,25 +5020,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111718</v>
@@ -5045,43 +5047,43 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,25 +5266,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5297,31 +5299,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756267</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921471</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898186992</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400689</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121621</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,13 +5454,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5473,13 +5475,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611856</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138388</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703087</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,19 +5588,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403286</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
         <v>1373.553594266881</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958744</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267662</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261141</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770251</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C22" t="n">
-        <v>634.3345878491182</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D22" t="n">
-        <v>484.2179484367824</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>484.2179484367824</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>484.2179484367824</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854699</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648812</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648812</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750795</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072648</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="23">
@@ -5972,37 +5974,37 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951537</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.052681478301</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038398</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797799</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910815</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570823</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279808</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853367</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580266</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6215,61 +6217,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>702.4944101284095</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C28" t="n">
-        <v>533.5582272005026</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>383.4415877881669</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2385.703354875905</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2166.101889898846</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1877.026663243044</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.342175037157</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>884.1428749586493</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="29">
@@ -6470,40 +6472,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6546,22 +6548,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400871</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121804</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121804</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121804</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121804</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270604</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814783087</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038474</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797877</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910823</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570831</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279816</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853375</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580275</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832677</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487582</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510523</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854721</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648834</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611874</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138567</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703267</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400749</v>
+        <v>2804.652647788941</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121681</v>
+        <v>2635.716464861034</v>
       </c>
       <c r="D34" t="n">
-        <v>343.0994656851781</v>
+        <v>2485.599825448699</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851781</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851781</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000581</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000581</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782959</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038347</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179775</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570819</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853363</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832665</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487569</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510511</v>
+        <v>4268.260127559378</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854709</v>
+        <v>3979.184900903576</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648822</v>
+        <v>3724.500412697689</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611862</v>
+        <v>3435.083242660729</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138444</v>
+        <v>3207.093691762711</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703145</v>
+        <v>2986.301112619181</v>
       </c>
     </row>
     <row r="35">
@@ -6932,28 +6934,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
@@ -6962,25 +6964,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492573</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474779</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466569</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612122998</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852884</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591804</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615992</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7019,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3006.417838136244</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C37" t="n">
-        <v>2837.481655208337</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D37" t="n">
-        <v>2687.365015796001</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E37" t="n">
-        <v>2687.365015796001</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>2687.365015796001</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2520.168916510881</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420638</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.617138214751</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.199968177791</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279774</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136244</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,58 +7168,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819236</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683104</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>3079.453861511889</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>2910.517678583982</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>2760.401039171646</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>2612.487945589253</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>2612.487945589253</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>4507.978318053497</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>4288.376853076438</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>3999.301626420636</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>3999.301626420636</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>3709.884456383676</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>3481.894905485658</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>3261.102326342128</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7406,28 +7408,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>372.4964262156759</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>867.8220324314346</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1465.200520057987</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612593</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1729.097755135313</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192724</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111728</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803938</v>
@@ -7737,16 +7739,16 @@
         <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
-        <v>2517.442480416598</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706077</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427008</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797193</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797193</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797193</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797193</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7828,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2426.8463580632</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085243</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879356</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443776</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008474</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>19.50758019582665</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.5862749664535</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>118.3918499711696</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>40.6433062151483</v>
       </c>
       <c r="C19" t="n">
-        <v>152.4862366927516</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24136,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5874149221357925</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>213.9468079295565</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353037992</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>120.3791545843327</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>10.32607348286555</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>109.0289520621393</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392192605</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856538</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>146.8157004124921</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>46.45968844823076</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229278</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>40.9031863666592</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>28.00274033431427</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>115.0314858713383</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>6.257951202384504</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.45968844823103</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>877441.698106954</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>877441.6981069542</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069539</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="I2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907545</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907545</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907546</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907544</v>
       </c>
       <c r="N2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907545</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.370099883548738e-11</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972776</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813242</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.0882867811</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678112</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.0882867811</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678128</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678133</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678143</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="M4" t="n">
         <v>10557.08828678125</v>
       </c>
-      <c r="M4" t="n">
-        <v>10557.08828678143</v>
-      </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26476,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26522,34 +26524,34 @@
         <v>-972219.6146887268</v>
       </c>
       <c r="C6" t="n">
-        <v>356525.1310388659</v>
+        <v>356525.1310388655</v>
       </c>
       <c r="D6" t="n">
         <v>356525.1310388659</v>
       </c>
       <c r="E6" t="n">
-        <v>107731.8748727105</v>
+        <v>107731.8748727101</v>
       </c>
       <c r="F6" t="n">
         <v>433144.3366800657</v>
       </c>
       <c r="G6" t="n">
-        <v>433144.3366800658</v>
+        <v>433144.3366800657</v>
       </c>
       <c r="H6" t="n">
-        <v>433144.3366800661</v>
+        <v>433144.3366800659</v>
       </c>
       <c r="I6" t="n">
-        <v>433144.336680066</v>
+        <v>433144.3366800655</v>
       </c>
       <c r="J6" t="n">
-        <v>215613.1342827884</v>
+        <v>215613.1342827879</v>
       </c>
       <c r="K6" t="n">
-        <v>433144.336680066</v>
+        <v>433144.3366800657</v>
       </c>
       <c r="L6" t="n">
-        <v>433144.3366800655</v>
+        <v>433144.3366800657</v>
       </c>
       <c r="M6" t="n">
         <v>348089.3087445539</v>
@@ -26558,10 +26560,10 @@
         <v>433144.3366800657</v>
       </c>
       <c r="O6" t="n">
-        <v>433144.336680066</v>
+        <v>433144.3366800661</v>
       </c>
       <c r="P6" t="n">
-        <v>433144.336680066</v>
+        <v>433144.3366800655</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26790,19 +26792,19 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,25 +26813,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26926,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>8.361376531331473</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>273.4041678244996</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>2.173084663761259</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>126.0419910850336</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>20.26843160070933</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>166.0767174715685</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>62.86618993178816</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>45.28680867601796</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27824,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>40.75856356176519</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.104811100950542</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>48.30174944246306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>24.85874610612103</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30153,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>3.460345829981158e-12</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -30229,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31843,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>146.0225991093084</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200299</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,31 +32080,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093084</v>
       </c>
       <c r="L15" t="n">
-        <v>211.7351844430261</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L18" t="n">
-        <v>339.3493584601583</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>595.3275373121701</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,19 +33022,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>407.217739120397</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33041,10 +33043,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33266,10 +33268,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33278,13 +33280,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,13 +33511,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>569.5723171953896</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33737,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067208</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33970,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>301.1823051500296</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34150,7 +34152,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043726</v>
@@ -34211,25 +34213,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>268.1779244693582</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067244</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34457,19 +34459,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>169.9530009943068</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048113</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>8.181160134949373</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366966</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>8.181160134949373</v>
       </c>
       <c r="L15" t="n">
-        <v>73.1808046631519</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L18" t="n">
-        <v>200.7949786802841</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9858252288368</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295874</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983787</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36689,10 +36691,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789214</v>
@@ -36914,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36926,13 +36928,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326296643</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>426.9760727509451</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295356</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236314895</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>159.0482712280113</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37859,25 +37861,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>130.3364854949993</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789214</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318498</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38105,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>35.9785935799765</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>205.0040068187898</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1817907.753781799</v>
+        <v>1813895.143767806</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>202.6460827821278</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>54.34809064563531</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>94.17933574607686</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>131.6653792309044</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>334.4146100199736</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>159.22828385002</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6.380068175847859</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>82.55485809114309</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1113,7 +1113,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>313.9244780589178</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222615</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>71.49367430371706</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>71.67037196991771</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>160.3243999861106</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>66.09841665934279</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1663,13 +1663,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>32.27552175740409</v>
       </c>
       <c r="F16" t="n">
-        <v>27.0291980517616</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>139.188673966789</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>164.1303830823236</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>40.96105405076426</v>
       </c>
       <c r="X22" t="n">
-        <v>11.76284745948067</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>139.1630968205461</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>208.2585798692292</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>118.1266457994465</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>36.39209596079195</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>170.9457618790575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.5819130177805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>50.49265242093051</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.91555826189108</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>3160.418091878048</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W2" t="n">
-        <v>2807.649436607934</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X2" t="n">
-        <v>2434.183678346854</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4412,10 +4412,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.4688890257551</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>308.5327060978482</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>308.5327060978482</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>308.5327060978482</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>161.6427585999378</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>161.6427585999378</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6427585999378</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995249</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X4" t="n">
-        <v>879.9099329995249</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>659.1173538559948</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1938.906022842681</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C5" t="n">
-        <v>1569.943505902269</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>684.4181157012738</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>269.3456655462703</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906803</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y5" t="n">
-        <v>2325.505862906803</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>486.5398815319805</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C7" t="n">
-        <v>317.6036986040737</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="D7" t="n">
-        <v>317.6036986040737</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>317.6036986040737</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1224.739181610489</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W7" t="n">
-        <v>935.322011573528</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X7" t="n">
-        <v>707.3324606755107</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y7" t="n">
-        <v>486.5398815319805</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1918.208919851715</v>
+        <v>1491.569348694474</v>
       </c>
       <c r="C8" t="n">
-        <v>1549.246402911304</v>
+        <v>1122.606831754062</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>764.3411331473114</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>378.5528805490672</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915837</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>2304.808759915837</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4907,16 +4907,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4928,7 +4928,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>452.6479724696239</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>452.6479724696239</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>452.6479724696239</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>452.6479724696239</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>452.6479724696239</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>284.9451358443429</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>138.7279490622007</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>680.6375233676413</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>452.6479724696239</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>452.6479724696239</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>251.5626541092265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>533.5582272005026</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>533.5582272005026</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>383.4415877881669</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1910.695003076829</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1656.010514870942</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1366.593344833982</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5272,49 +5272,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>251.5626541092265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="17">
@@ -5506,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5597,16 +5597,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D19" t="n">
         <v>779.6143379232838</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2281.17481784054</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2061.573352863481</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1772.498126207679</v>
       </c>
       <c r="V19" t="n">
-        <v>1977.461080510508</v>
+        <v>1517.813638001792</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.043910473548</v>
+        <v>1228.396467964831</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.05435957553</v>
+        <v>1000.406917066814</v>
       </c>
       <c r="Y19" t="n">
-        <v>1239.261780432</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,7 +5746,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
@@ -5755,19 +5755,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,16 +5788,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811333</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>1132.402531511373</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6071,16 +6071,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6223,19 +6223,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>705.9324428257312</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>773.2931750925917</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>625.3800815101986</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y28" t="n">
-        <v>705.9324428257312</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="29">
@@ -6457,28 +6457,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,52 +6597,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D31" t="n">
-        <v>527.7722521572603</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>379.8591585748671</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
@@ -6654,19 +6654,19 @@
         <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2804.652647788941</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2635.716464861034</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2485.599825448699</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866305</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866305</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866305</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4268.260127559378</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3979.184900903576</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3724.500412697689</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3435.083242660729</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3207.093691762711</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>2986.301112619181</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.7772127656159</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>782.841029837709</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429802</v>
@@ -7089,58 +7089,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611859</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>951.7772127656159</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819236</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3079.453861511889</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>2910.517678583982</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>2760.401039171646</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>2612.487945589253</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>2612.487945589253</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.376853076438</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>3999.301626420636</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>3999.301626420636</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>3709.884456383676</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>3481.894905485658</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>3261.102326342128</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7493,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2426.846358063199</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1337.934786622704</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2313.46766635706</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746423</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.50758019582665</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>220.0860577299014</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="F16" t="n">
-        <v>118.3918499711696</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40.6433062151483</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.89590291932097</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>245.5619442858267</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9468079295565</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>6.257951202385101</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.32607348286555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>30.48882721876581</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>109.0289520621393</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>46.45968844823076</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229278</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.00274033431427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>115.0314858713383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.45968844823058</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069539</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069539</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069539</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="15">
@@ -26316,25 +26316,25 @@
         <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="I2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="F2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907539</v>
@@ -26343,7 +26343,7 @@
         <v>544823.954790754</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907541</v>
@@ -26352,10 +26352,10 @@
         <v>544823.954790754</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907545</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.370099883548738e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813242</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26435,7 +26435,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26450,10 +26450,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-972219.6146887268</v>
+        <v>-972219.6146887271</v>
       </c>
       <c r="C6" t="n">
-        <v>356525.1310388655</v>
+        <v>356525.1310388657</v>
       </c>
       <c r="D6" t="n">
         <v>356525.1310388659</v>
       </c>
       <c r="E6" t="n">
-        <v>107731.8748727101</v>
+        <v>107384.4956183536</v>
       </c>
       <c r="F6" t="n">
-        <v>433144.3366800657</v>
+        <v>432796.9574257091</v>
       </c>
       <c r="G6" t="n">
-        <v>433144.3366800657</v>
+        <v>432796.9574257092</v>
       </c>
       <c r="H6" t="n">
-        <v>433144.3366800659</v>
+        <v>432796.9574257087</v>
       </c>
       <c r="I6" t="n">
-        <v>433144.3366800655</v>
+        <v>432796.9574257085</v>
       </c>
       <c r="J6" t="n">
-        <v>215613.1342827879</v>
+        <v>215265.7550284312</v>
       </c>
       <c r="K6" t="n">
-        <v>433144.3366800657</v>
+        <v>432796.9574257087</v>
       </c>
       <c r="L6" t="n">
-        <v>433144.3366800657</v>
+        <v>432796.9574257086</v>
       </c>
       <c r="M6" t="n">
-        <v>348089.3087445539</v>
+        <v>347741.929490197</v>
       </c>
       <c r="N6" t="n">
-        <v>433144.3366800657</v>
+        <v>432796.9574257087</v>
       </c>
       <c r="O6" t="n">
-        <v>433144.3366800661</v>
+        <v>432796.9574257089</v>
       </c>
       <c r="P6" t="n">
-        <v>433144.3366800655</v>
+        <v>432796.9574257085</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26819,10 +26819,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>152.0369588385552</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>273.4041678244996</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>2.173084663761259</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>94.04427615813279</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>20.26843160070933</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>135.3794805373005</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>62.86618993178816</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27824,7 +27824,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>40.75856356176519</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>108.87741491945</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>24.85874610612103</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>147.8785773062515</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30155,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>3.460345829981158e-12</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -30231,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>146.0225991093084</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093084</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32551,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>407.217739120397</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067208</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>344.9857809048113</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>8.181160134949373</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949373</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>265.0837051983787</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236314895</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>205.0040068187898</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1813895.143767806</v>
+        <v>1815655.674070591</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283175</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>202.6460827821278</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>373.5689935409296</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928482</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>131.6653792309044</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>159.22828385002</v>
+        <v>126.5388824951706</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,16 +1059,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>6.380068175847859</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>297.9986308222615</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>27.53781586405303</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>71.67037196991771</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>124.2292170629838</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187848</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444153</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>66.09841665934279</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>247.2924896597629</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1666,16 +1666,16 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>32.27552175740409</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000844</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520888</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722602</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>164.1303830823236</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819298</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2292,16 +2292,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>152.3242997534543</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>40.96105405076426</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>83.06560892428911</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365835</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>114.5006452705931</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>139.1630968205461</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2769,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>118.1266457994465</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>67.00771475394369</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>89.67992556049168</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>170.9457618790573</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>102.7673426709131</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1822.632236038043</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1822.632236038043</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2599.371408077976</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2209.232076102165</v>
+        <v>1321.167210201447</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>1931.789305875496</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>1762.853122947589</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>1612.736483535254</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>3106.321558990131</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.507193008249</v>
+        <v>2851.637070784244</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.507193008249</v>
+        <v>2562.219900747284</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>2334.230349849266</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>2113.437770705736</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1822.632236038043</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C5" t="n">
-        <v>1453.669719097632</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D5" t="n">
-        <v>1095.404020490881</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E5" t="n">
-        <v>1095.404020490881</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F5" t="n">
-        <v>684.4181157012738</v>
+        <v>651.3985183731431</v>
       </c>
       <c r="G5" t="n">
-        <v>269.3456655462703</v>
+        <v>236.3260682181396</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4579,7 +4579,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4606,13 +4606,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="W5" t="n">
-        <v>2972.837166339057</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X5" t="n">
-        <v>2599.371408077977</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y5" t="n">
-        <v>2209.232076102165</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,10 +4649,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>241.8928126690276</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>72.95662974112065</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4725,16 +4725,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>872.3234075408147</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>644.3338566427974</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>423.5412774992673</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694474</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754062</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473114</v>
+        <v>547.3108956025778</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490672</v>
+        <v>547.3108956025778</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>136.3249908129703</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995487</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758595</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1801.810490449115</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5020,28 +5020,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5059,31 +5059,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1910.695003076829</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1656.010514870942</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1366.593344833982</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1138.603793935964</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5275,19 +5275,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098242</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819173</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695815</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>2273.199413378155</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718572</v>
+        <v>2018.514925172268</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1729.097755135308</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783594</v>
+        <v>1501.10820423729</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640064</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5506,10 +5506,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5518,49 +5518,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5582,19 +5582,19 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
         <v>577.3880777468471</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2281.17481784054</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2061.573352863481</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1772.498126207679</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1517.813638001792</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1228.396467964831</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1000.406917066814</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>779.6143379232838</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,19 +5746,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5770,34 +5770,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5843,10 +5843,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2043.199616443674</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1788.515128237787</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1499.097958200826</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1271.108407302809</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>1050.315828159279</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6071,16 +6071,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400787</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121718</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121718</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121718</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6186,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611866</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138486</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703185</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6314,10 +6314,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.345997432834</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C28" t="n">
-        <v>923.4098145049275</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D28" t="n">
-        <v>773.2931750925917</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>625.3800815101986</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1273.994462263074</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6551,10 +6551,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>985.7836617409695</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C31" t="n">
-        <v>816.8474788130626</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.278523222742</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2159.677058245683</v>
       </c>
       <c r="U31" t="n">
-        <v>2160.315914855604</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="V31" t="n">
-        <v>1905.631426649717</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W31" t="n">
-        <v>1616.214256612757</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X31" t="n">
-        <v>1388.224705714739</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y31" t="n">
-        <v>1167.432126571209</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6788,10 +6788,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>446.9048623224643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>279.7087630373442</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7797,7 +7797,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>220.0860577299014</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>4.845153664065066</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23709,7 +23709,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891597</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>16.89590291932097</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.8601746357898</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>245.5619442858267</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864214</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>34.11482774761924</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>6.257951202385101</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>30.48882721876581</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>114.0185712477009</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>50.61478728573221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>46.45968844823099</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>37.52737017531081</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069541</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.698106954</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069539</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>877441.6981069538</v>
+        <v>877441.6981069539</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>877441.6981069539</v>
+        <v>877441.6981069538</v>
       </c>
     </row>
     <row r="14">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583913</v>
-      </c>
-      <c r="C2" t="n">
-        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907544</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907539</v>
@@ -26343,16 +26343,16 @@
         <v>544823.954790754</v>
       </c>
       <c r="L2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="M2" t="n">
-        <v>544823.9547907541</v>
-      </c>
       <c r="N2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907538</v>
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813242</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678131</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678131</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678129</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678131</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678131</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26450,7 +26450,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-972219.6146887271</v>
+        <v>-972219.6146887268</v>
       </c>
       <c r="C6" t="n">
+        <v>356525.1310388655</v>
+      </c>
+      <c r="D6" t="n">
         <v>356525.1310388657</v>
       </c>
-      <c r="D6" t="n">
-        <v>356525.1310388659</v>
-      </c>
       <c r="E6" t="n">
-        <v>107384.4956183536</v>
+        <v>107697.1369472748</v>
       </c>
       <c r="F6" t="n">
-        <v>432796.9574257091</v>
+        <v>433109.5987546302</v>
       </c>
       <c r="G6" t="n">
-        <v>432796.9574257092</v>
+        <v>433109.5987546298</v>
       </c>
       <c r="H6" t="n">
-        <v>432796.9574257087</v>
+        <v>433109.5987546299</v>
       </c>
       <c r="I6" t="n">
-        <v>432796.9574257085</v>
+        <v>433109.5987546297</v>
       </c>
       <c r="J6" t="n">
-        <v>215265.7550284312</v>
+        <v>215578.3963573524</v>
       </c>
       <c r="K6" t="n">
-        <v>432796.9574257087</v>
+        <v>433109.59875463</v>
       </c>
       <c r="L6" t="n">
-        <v>432796.9574257086</v>
+        <v>433109.5987546296</v>
       </c>
       <c r="M6" t="n">
-        <v>347741.929490197</v>
+        <v>348054.570819118</v>
       </c>
       <c r="N6" t="n">
-        <v>432796.9574257087</v>
+        <v>433109.5987546297</v>
       </c>
       <c r="O6" t="n">
-        <v>432796.9574257089</v>
+        <v>433109.5987546298</v>
       </c>
       <c r="P6" t="n">
-        <v>432796.9574257085</v>
+        <v>433109.5987546297</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>152.0369588385552</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>12.66894511512402</v>
       </c>
     </row>
     <row r="3">
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,16 +27593,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>69.12041821276469</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>94.04427615813279</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>135.3794805373005</v>
+        <v>168.0688818921498</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>142.2354048423645</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>108.87741491945</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>383.3839097894004</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>147.8785773062515</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>161.9826211426291</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.816000223760935e-12</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28143,10 +28143,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28383,19 +28383,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28553,7 +28553,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>6.023067408807101e-12</v>
       </c>
     </row>
     <row r="17">
@@ -28563,16 +28563,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.607718096583367e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28958,7 +28958,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>7.517303009959066e-12</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -29258,7 +29258,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>7.517303009959066e-12</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>400.5469039565762</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>400.5469039565762</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>257.9506595121318</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>257.9506595121318</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
